--- a/Laboratorio 2 - Estructura informe.xlsx
+++ b/Laboratorio 2 - Estructura informe.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
   <si>
     <t>RF1</t>
   </si>
@@ -112,6 +112,21 @@
   </si>
   <si>
     <t>EXTRACT (YEAR FROM FECHA_ULTIMA_VISITA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mencionar que al comienzo funcionaba pero despues no, probablemente aprendio de las estadísticas </t>
+  </si>
+  <si>
+    <t>FRECUENTAN (ID_BEBEDOR,FECHA_ULTIMA_VISITA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No es conmutativa la llave </t>
+  </si>
+  <si>
+    <t>BEBEDORES (ID,NOMBRE)</t>
+  </si>
+  <si>
+    <t>Aquí se vé como hacer INTERSECTs en vez de un AND en el WHERE es significaticativamente más caro. Cuesta casi el doble ejecutar el INTERSECT.</t>
   </si>
 </sst>
 </file>
@@ -232,12 +247,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -251,10 +260,16 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -656,6 +671,234 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>111672</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5847014</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1021708</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9222827" y="8115737"/>
+          <a:ext cx="5735342" cy="920109"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>860534</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>62186</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4974667</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1040683</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagen 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9971689" y="9193048"/>
+          <a:ext cx="4114133" cy="978497"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>149087</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>140804</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5880652</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>892653</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Imagen 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3329609" y="12573000"/>
+          <a:ext cx="5731565" cy="751849"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>331305</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>66261</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5657022</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>1078627</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Imagen 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3511827" y="13616609"/>
+          <a:ext cx="5325717" cy="1012366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>132521</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>140804</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5791122</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>957194</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Imagen 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9243391" y="12573000"/>
+          <a:ext cx="5658601" cy="816390"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>596347</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>41414</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5284304</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>1073855</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Imagen 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9707217" y="13591762"/>
+          <a:ext cx="4687957" cy="1032441"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -948,25 +1191,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="8"/>
-    <col min="2" max="2" width="36.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="6"/>
+    <col min="2" max="2" width="36.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="89" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="7"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -977,7 +1220,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -988,67 +1231,69 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="11">
         <v>0.1</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="11">
         <v>0.4</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="10" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="10" t="s">
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D9" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -1059,10 +1304,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="10">
         <v>0.2</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -1073,8 +1318,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="10" t="s">
+      <c r="A14" s="10"/>
+      <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1085,8 +1330,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="10" t="s">
+      <c r="A15" s="10"/>
+      <c r="B15" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1095,79 +1340,81 @@
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="10" t="s">
+      <c r="A16" s="10"/>
+      <c r="B16" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="10" t="s">
+      <c r="A17" s="10"/>
+      <c r="B17" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="10" t="s">
+      <c r="A18" s="10"/>
+      <c r="B18" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="10" t="s">
+      <c r="A19" s="10"/>
+      <c r="B19" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="10" t="s">
+      <c r="A20" s="10"/>
+      <c r="B20" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="10" t="s">
+      <c r="A21" s="10"/>
+      <c r="B21" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="10" t="s">
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="10" t="s">
+      <c r="A23" s="10"/>
+      <c r="B23" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -1178,10 +1425,10 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
+      <c r="A27" s="10">
         <v>0.2</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -1192,64 +1439,70 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="10" t="s">
+      <c r="A28" s="10"/>
+      <c r="B28" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="29" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="10" t="s">
+      <c r="A29" s="10"/>
+      <c r="B29" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="10" t="s">
+      <c r="A30" s="10"/>
+      <c r="B30" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="10" t="s">
+      <c r="A31" s="10"/>
+      <c r="B31" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="10" t="s">
+      <c r="A32" s="10"/>
+      <c r="B32" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="10" t="s">
+      <c r="A33" s="10"/>
+      <c r="B33" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="10" t="s">
+      <c r="A34" s="10"/>
+      <c r="B34" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="1"/>

--- a/Laboratorio 2 - Estructura informe.xlsx
+++ b/Laboratorio 2 - Estructura informe.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
   <si>
     <t>RF1</t>
   </si>
@@ -114,26 +114,53 @@
     <t>EXTRACT (YEAR FROM FECHA_ULTIMA_VISITA)</t>
   </si>
   <si>
-    <t xml:space="preserve">Mencionar que al comienzo funcionaba pero despues no, probablemente aprendio de las estadísticas </t>
-  </si>
-  <si>
     <t>FRECUENTAN (ID_BEBEDOR,FECHA_ULTIMA_VISITA)</t>
   </si>
   <si>
-    <t xml:space="preserve">No es conmutativa la llave </t>
-  </si>
-  <si>
     <t>BEBEDORES (ID,NOMBRE)</t>
   </si>
   <si>
-    <t>Aquí se vé como hacer INTERSECTs en vez de un AND en el WHERE es significaticativamente más caro. Cuesta casi el doble ejecutar el INTERSECT.</t>
+    <t>Esta es la manera estándar de desarrollar la consulta. El optimizador de oracle ejecuta esta sentencia de manera eficiente. Es por eso que tiene el menor costo de las dos.</t>
+  </si>
+  <si>
+    <t>BEBEDORES(NOMBRE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementar un índice en FRECUENTAN(ID_BEBEDORES) disminuye el tiempo de búsqueda para los ids de los bebedores que frecuentan los bares y por lo tanto reduce el tiempo de consulta. Pragmáticamente no baja mucho el costo en ninguna de las sentencias. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementar un indice sobre BEBEDORES(NOMBRE) reduce el tiempo de búsqueda sobre los nombres y por consiquiente reduce el costo de la consulta. Al igual que en el caso anterior, como lo costoso de la operación es el JOIN y el índice no ayuda de ninguna manera al JOIN, no se disminuye mucho el costo de ejecutar la sentencia. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El índice combinado redujo considerablemente el costo de ejecutar la sentencia SQL de 13 a 3. Esto se debe a que el índice conjunto tenía los parámetros que se usaron en el WHERE de la sentencia. Así pues, encontrar los valores deseados se redujo a recorrer un segmento pequeño de las hojas de un arbol B+. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lo que se dijo arriba, aplica </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aquí se vé cómo SQL2 es significativamente más caro. Cuesta casi el doble ejecutar el INTERSECT. Esto se debe a que el optimizador de oracle parsea la sentencia SQL1 y la ejecuta de la manera más eficiente posible. Hacer la itersección no utiliza los protocolos de optimización de WHERE de oracle y por consiguiente, se demora más, en especial por la ejecución del ordenamiento. </t>
+  </si>
+  <si>
+    <t>Al incluir el WHERE y el INTERSECT dentro de la primera tabla del JOIN, el optimizador de oracle no logra ejecutar de manera eficiente la sentencia. Así pues, el costo de la segunda sentencia SQL es mayor a la primera.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementar un índice sobre FRECUENTAN(ID_BEBEDOR) disminuye el tiempo de búsqueda del id de un bebedor. Al momento de hacer el AND en la primera sentencia o el WHERE sobre el ID_BEBEDOR en la segunda sentencia, se va a disminuir el tiempo de consulta. Es por eso que se evidencia un menor costo de la consulta en ambos casos. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intentamos hacer un indice basado en la función EXTRACT para disminuir el costo de la consulta. La primera vez que corrió vimos el efecto del índice en la consulta.  A partir de la segunda vez que se corrió, el optimizador de oracle decidió no utilizar el índice. Hipotetizamos que tras correrlo un par de veces, el optimizador se dió cuenta en base en las estadísticas que usar el índice no era favorable. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">De nuevo, al igual que en el caso con un solo índice, la operación demorada en la sentencia SQL es el JOIN. Dado que el indice combinado no afecta el JOIN de ninguna forma, pues este no depende de los dos atributos del índice, el costo no se redujo considerablemente. Se puede ver en este caso que el costo se redujo de 19 a 17 pero, en sí, el cambio no es drástico. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dado que el INTERSECT es una operación lenta, implementar un índice conjunto no disminuye considerablemente el costo de la sentencia que lo aplique, lo cual es visto en este caso.  Cabe notar que el índice combinado NO es conmutativo en ambos planes, es decir, el orden de los atributos del índice afecta el ahorro en el costo de manera diferente. La manera aquí expuesta es aquella que disminuye al máximo el costo.  Es muy posible que la no conmutatividad de los atributos del índice se deba a la selectividad de los datos. Así pues, para mejorar las consultas, el parámetro con mayor selectividad debería ir primero. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,6 +193,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -230,46 +263,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1191,135 +1218,141 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="6"/>
-    <col min="2" max="2" width="36.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="89" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="4"/>
+    <col min="2" max="2" width="36.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="89" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="13"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="3">
         <v>0.1</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="3">
         <v>0.4</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="8" t="s">
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="8" t="s">
+      <c r="C8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+      <c r="A13" s="3">
         <v>0.2</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="8" t="s">
+      <c r="A14" s="3"/>
+      <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1330,186 +1363,200 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="8" t="s">
+      <c r="A15" s="3"/>
+      <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="8" t="s">
+      <c r="A16" s="3"/>
+      <c r="B16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="8" t="s">
+      <c r="A17" s="3"/>
+      <c r="B17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="8" t="s">
+      <c r="A18" s="3"/>
+      <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="8" t="s">
+      <c r="A19" s="3"/>
+      <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="8" t="s">
+      <c r="A20" s="3"/>
+      <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="8" t="s">
+      <c r="A21" s="3"/>
+      <c r="B21" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="8" t="s">
+    <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="29" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="8" t="s">
+      <c r="A29" s="3"/>
+      <c r="B29" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="8" t="s">
+      <c r="A30" s="3"/>
+      <c r="B30" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="8" t="s">
+      <c r="A31" s="3"/>
+      <c r="B31" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="8" t="s">
+      <c r="A32" s="3"/>
+      <c r="B32" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="8" t="s">
+    <row r="33" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="8" t="s">
+      <c r="C33" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
+      <c r="A35" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">
